--- a/Results/cer_generation_emission_WS.xlsx
+++ b/Results/cer_generation_emission_WS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3014431d783ae085/AER work/Electricity emission/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/weisun/Documents/GitHub/NEM-Generation-Emission/Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="48" documentId="8_{4EF4406D-7449-8645-8CB6-C335E1005A18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C9997064-9B46-4967-A643-9F6C9011C088}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D29FC52-7C47-8840-8C70-14CD98A26224}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14775" xr2:uid="{903C5FB2-B899-BD40-8CB7-AC8267D6E393}"/>
+    <workbookView xWindow="38400" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{903C5FB2-B899-BD40-8CB7-AC8267D6E393}"/>
   </bookViews>
   <sheets>
     <sheet name="Plotting" sheetId="3" r:id="rId1"/>
@@ -19,7 +19,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId4"/>
+    <pivotCache cacheId="50" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -213,25 +213,25 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="等线 Light"/>
+      <name val="Aptos Display"/>
       <family val="2"/>
       <scheme val="major"/>
     </font>
@@ -239,7 +239,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="等线"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -247,7 +247,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="等线"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -255,35 +255,35 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="等线"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF006100"/>
-      <name val="等线"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF9C0006"/>
-      <name val="等线"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF9C5700"/>
-      <name val="等线"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF3F3F76"/>
-      <name val="等线"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -291,7 +291,7 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -299,14 +299,14 @@
       <b/>
       <sz val="12"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -314,14 +314,14 @@
       <b/>
       <sz val="12"/>
       <color theme="0"/>
-      <name val="等线"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -329,7 +329,7 @@
       <i/>
       <sz val="12"/>
       <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -337,14 +337,14 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="0"/>
-      <name val="等线"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -352,14 +352,14 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="等线"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="等线"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -373,7 +373,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Aptos Narrow"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -793,7 +793,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="16" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="11" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="Per cent" xfId="1" builtinId="5"/>
     <cellStyle name="Title" xfId="2" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="18" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="15" builtinId="11" customBuiltin="1"/>
@@ -836,7 +836,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -872,7 +872,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
-              <a:t> (CER re-organised)</a:t>
+              <a:t> (CER re-classified)</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" altLang="zh-CN"/>
           </a:p>
@@ -903,7 +903,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1586,7 +1586,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1288989055"/>
@@ -1673,7 +1673,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1705,7 +1705,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1288977055"/>
@@ -1776,7 +1776,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1808,7 +1808,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1295940543"/>
@@ -1828,6 +1828,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="1295965023"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -1868,7 +1869,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1905,7 +1906,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2465,16 +2466,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>366712</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>85723</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>49212</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>149223</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>366712</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>171448</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>506412</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>149223</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4473,7 +4474,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0B84EAD5-C00C-1140-9805-3E9867802C29}" name="PivotTable9" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0B84EAD5-C00C-1140-9805-3E9867802C29}" name="PivotTable9" cacheId="50" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="A4:C10" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="6">
     <pivotField axis="axisPage" compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -4913,10 +4914,10 @@
   <dimension ref="A2:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="Q23" sqref="Q23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
@@ -4927,7 +4928,7 @@
     <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>37</v>
       </c>
@@ -4956,7 +4957,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>44</v>
       </c>
@@ -4986,7 +4987,7 @@
         <v>156216728</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>45</v>
       </c>
@@ -5016,7 +5017,7 @@
         <v>152565442</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>46</v>
       </c>
@@ -5046,7 +5047,7 @@
         <v>144672933</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>47</v>
       </c>
@@ -5076,7 +5077,7 @@
         <v>138583368</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>48</v>
       </c>
@@ -5106,7 +5107,7 @@
         <v>129499146</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>49</v>
       </c>
@@ -5136,7 +5137,7 @@
         <v>124614557</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>52</v>
       </c>
@@ -5147,7 +5148,7 @@
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>44</v>
       </c>
@@ -5176,7 +5177,7 @@
         <v>6.9797042316885757E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>45</v>
       </c>
@@ -5205,7 +5206,7 @@
         <v>8.9863241077952835E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>46</v>
       </c>
@@ -5234,7 +5235,7 @@
         <v>0.11729942878073495</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>47</v>
       </c>
@@ -5263,7 +5264,7 @@
         <v>0.14277615321192075</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>48</v>
       </c>
@@ -5292,7 +5293,7 @@
         <v>0.17169664682135394</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>49</v>
       </c>
@@ -5337,18 +5338,18 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="14" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5356,7 +5357,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -5364,7 +5365,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -5375,7 +5376,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -5386,7 +5387,7 @@
         <v>156216728</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>31</v>
       </c>
@@ -5397,7 +5398,7 @@
         <v>152565442</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>33</v>
       </c>
@@ -5408,7 +5409,7 @@
         <v>144672933</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>34</v>
       </c>
@@ -5419,7 +5420,7 @@
         <v>138583368</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>35</v>
       </c>
@@ -5430,7 +5431,7 @@
         <v>129499146</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>36</v>
       </c>
@@ -5456,9 +5457,9 @@
       <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5478,7 +5479,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -5498,7 +5499,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -5518,7 +5519,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -5538,7 +5539,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -5558,7 +5559,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -5578,7 +5579,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -5598,7 +5599,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -5618,7 +5619,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -5638,7 +5639,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -5658,7 +5659,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -5678,7 +5679,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -5698,7 +5699,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -5718,7 +5719,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -5738,7 +5739,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -5758,7 +5759,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -5778,7 +5779,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -5798,7 +5799,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -5818,7 +5819,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -5838,7 +5839,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -5858,7 +5859,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -5878,7 +5879,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -5898,7 +5899,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -5918,7 +5919,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -5938,7 +5939,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -5958,7 +5959,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -5978,7 +5979,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>23</v>
       </c>
@@ -5998,7 +5999,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>23</v>
       </c>
@@ -6018,7 +6019,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>25</v>
       </c>
@@ -6038,7 +6039,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>25</v>
       </c>
@@ -6058,7 +6059,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>25</v>
       </c>
@@ -6078,7 +6079,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>25</v>
       </c>
@@ -6098,7 +6099,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>26</v>
       </c>
@@ -6118,7 +6119,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>26</v>
       </c>
@@ -6138,7 +6139,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>26</v>
       </c>
@@ -6158,7 +6159,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>26</v>
       </c>
@@ -6178,7 +6179,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>26</v>
       </c>
@@ -6198,7 +6199,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>26</v>
       </c>
@@ -6218,7 +6219,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>26</v>
       </c>
@@ -6238,7 +6239,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>26</v>
       </c>
@@ -6258,7 +6259,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>6</v>
       </c>
@@ -6278,7 +6279,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>6</v>
       </c>
@@ -6298,7 +6299,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>6</v>
       </c>
@@ -6318,7 +6319,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>6</v>
       </c>
@@ -6338,7 +6339,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>6</v>
       </c>
@@ -6358,7 +6359,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>6</v>
       </c>
@@ -6378,7 +6379,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>6</v>
       </c>
@@ -6398,7 +6399,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>6</v>
       </c>
@@ -6418,7 +6419,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>6</v>
       </c>
@@ -6438,7 +6439,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>6</v>
       </c>
@@ -6458,7 +6459,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>21</v>
       </c>
@@ -6478,7 +6479,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>21</v>
       </c>
@@ -6498,7 +6499,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>21</v>
       </c>
@@ -6518,7 +6519,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>21</v>
       </c>
@@ -6538,7 +6539,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>21</v>
       </c>
@@ -6558,7 +6559,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>21</v>
       </c>
@@ -6578,7 +6579,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>21</v>
       </c>
@@ -6598,7 +6599,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>21</v>
       </c>
@@ -6618,7 +6619,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>21</v>
       </c>
@@ -6638,7 +6639,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>21</v>
       </c>
@@ -6658,7 +6659,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>21</v>
       </c>
@@ -6678,7 +6679,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>23</v>
       </c>
@@ -6698,7 +6699,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>23</v>
       </c>
@@ -6718,7 +6719,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>23</v>
       </c>
@@ -6738,7 +6739,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>23</v>
       </c>
@@ -6758,7 +6759,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>23</v>
       </c>
@@ -6778,7 +6779,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>23</v>
       </c>
@@ -6798,7 +6799,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>25</v>
       </c>
@@ -6818,7 +6819,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>25</v>
       </c>
@@ -6838,7 +6839,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>25</v>
       </c>
@@ -6858,7 +6859,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>25</v>
       </c>
@@ -6878,7 +6879,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>26</v>
       </c>
@@ -6898,7 +6899,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>26</v>
       </c>
@@ -6918,7 +6919,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>26</v>
       </c>
@@ -6938,7 +6939,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>26</v>
       </c>
@@ -6958,7 +6959,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>26</v>
       </c>
@@ -6978,7 +6979,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>26</v>
       </c>
@@ -6998,7 +6999,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>26</v>
       </c>
@@ -7018,7 +7019,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>26</v>
       </c>
@@ -7038,7 +7039,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>26</v>
       </c>
@@ -7058,7 +7059,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>6</v>
       </c>
@@ -7078,7 +7079,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>6</v>
       </c>
@@ -7098,7 +7099,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>6</v>
       </c>
@@ -7118,7 +7119,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>6</v>
       </c>
@@ -7138,7 +7139,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>6</v>
       </c>
@@ -7158,7 +7159,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>6</v>
       </c>
@@ -7178,7 +7179,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>6</v>
       </c>
@@ -7198,7 +7199,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>6</v>
       </c>
@@ -7218,7 +7219,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>6</v>
       </c>
@@ -7238,7 +7239,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>6</v>
       </c>
@@ -7258,7 +7259,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>21</v>
       </c>
@@ -7278,7 +7279,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>21</v>
       </c>
@@ -7298,7 +7299,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>21</v>
       </c>
@@ -7318,7 +7319,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>21</v>
       </c>
@@ -7338,7 +7339,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>21</v>
       </c>
@@ -7358,7 +7359,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>21</v>
       </c>
@@ -7378,7 +7379,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>21</v>
       </c>
@@ -7398,7 +7399,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>21</v>
       </c>
@@ -7418,7 +7419,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>21</v>
       </c>
@@ -7438,7 +7439,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>21</v>
       </c>
@@ -7458,7 +7459,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="101" spans="1:6">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>21</v>
       </c>
@@ -7478,7 +7479,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="102" spans="1:6">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>23</v>
       </c>
@@ -7498,7 +7499,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="103" spans="1:6">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>23</v>
       </c>
@@ -7518,7 +7519,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="104" spans="1:6">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>23</v>
       </c>
@@ -7538,7 +7539,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="105" spans="1:6">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>23</v>
       </c>
@@ -7558,7 +7559,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="106" spans="1:6">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>23</v>
       </c>
@@ -7578,7 +7579,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="107" spans="1:6">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>23</v>
       </c>
@@ -7598,7 +7599,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="108" spans="1:6">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>25</v>
       </c>
@@ -7618,7 +7619,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="109" spans="1:6">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>25</v>
       </c>
@@ -7638,7 +7639,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="110" spans="1:6">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>25</v>
       </c>
@@ -7658,7 +7659,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="111" spans="1:6">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>25</v>
       </c>
@@ -7678,7 +7679,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="112" spans="1:6">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>26</v>
       </c>
@@ -7698,7 +7699,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="113" spans="1:6">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>26</v>
       </c>
@@ -7718,7 +7719,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="114" spans="1:6">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>26</v>
       </c>
@@ -7738,7 +7739,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="115" spans="1:6">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>26</v>
       </c>
@@ -7758,7 +7759,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="116" spans="1:6">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>26</v>
       </c>
@@ -7778,7 +7779,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="117" spans="1:6">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>26</v>
       </c>
@@ -7798,7 +7799,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="118" spans="1:6">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>26</v>
       </c>
@@ -7818,7 +7819,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="119" spans="1:6">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>26</v>
       </c>
@@ -7838,7 +7839,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="120" spans="1:6">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>26</v>
       </c>
@@ -7858,7 +7859,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="121" spans="1:6">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>6</v>
       </c>
@@ -7878,7 +7879,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="122" spans="1:6">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>6</v>
       </c>
@@ -7898,7 +7899,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="123" spans="1:6">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>6</v>
       </c>
@@ -7918,7 +7919,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="124" spans="1:6">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>6</v>
       </c>
@@ -7938,7 +7939,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="125" spans="1:6">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>6</v>
       </c>
@@ -7958,7 +7959,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="126" spans="1:6">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>6</v>
       </c>
@@ -7978,7 +7979,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="127" spans="1:6">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>6</v>
       </c>
@@ -7998,7 +7999,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="128" spans="1:6">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>6</v>
       </c>
@@ -8018,7 +8019,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="129" spans="1:6">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>6</v>
       </c>
@@ -8038,7 +8039,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="130" spans="1:6">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>6</v>
       </c>
@@ -8058,7 +8059,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="131" spans="1:6">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>21</v>
       </c>
@@ -8078,7 +8079,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="132" spans="1:6">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>21</v>
       </c>
@@ -8098,7 +8099,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="133" spans="1:6">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>21</v>
       </c>
@@ -8118,7 +8119,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="134" spans="1:6">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>21</v>
       </c>
@@ -8138,7 +8139,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="135" spans="1:6">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>21</v>
       </c>
@@ -8158,7 +8159,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="136" spans="1:6">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>21</v>
       </c>
@@ -8178,7 +8179,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="137" spans="1:6">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>21</v>
       </c>
@@ -8198,7 +8199,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="138" spans="1:6">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>21</v>
       </c>
@@ -8218,7 +8219,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="139" spans="1:6">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>21</v>
       </c>
@@ -8238,7 +8239,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="140" spans="1:6">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>21</v>
       </c>
@@ -8258,7 +8259,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="141" spans="1:6">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>21</v>
       </c>
@@ -8278,7 +8279,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="142" spans="1:6">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>23</v>
       </c>
@@ -8298,7 +8299,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="143" spans="1:6">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>23</v>
       </c>
@@ -8318,7 +8319,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="144" spans="1:6">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>23</v>
       </c>
@@ -8338,7 +8339,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="145" spans="1:6">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>23</v>
       </c>
@@ -8358,7 +8359,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="146" spans="1:6">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>23</v>
       </c>
@@ -8378,7 +8379,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="147" spans="1:6">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>23</v>
       </c>
@@ -8398,7 +8399,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="148" spans="1:6">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>25</v>
       </c>
@@ -8418,7 +8419,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="149" spans="1:6">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>25</v>
       </c>
@@ -8438,7 +8439,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="150" spans="1:6">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>25</v>
       </c>
@@ -8458,7 +8459,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="151" spans="1:6">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>25</v>
       </c>
@@ -8478,7 +8479,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="152" spans="1:6">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>26</v>
       </c>
@@ -8498,7 +8499,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="153" spans="1:6">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>26</v>
       </c>
@@ -8518,7 +8519,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="154" spans="1:6">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>26</v>
       </c>
@@ -8538,7 +8539,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="155" spans="1:6">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>26</v>
       </c>
@@ -8558,7 +8559,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="156" spans="1:6">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>26</v>
       </c>
@@ -8578,7 +8579,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="157" spans="1:6">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>26</v>
       </c>
@@ -8598,7 +8599,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="158" spans="1:6">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>26</v>
       </c>
@@ -8618,7 +8619,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="159" spans="1:6">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>26</v>
       </c>
@@ -8638,7 +8639,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="160" spans="1:6">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>26</v>
       </c>
@@ -8658,7 +8659,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="161" spans="1:6">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>6</v>
       </c>
@@ -8678,7 +8679,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="162" spans="1:6">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>6</v>
       </c>
@@ -8698,7 +8699,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="163" spans="1:6">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>6</v>
       </c>
@@ -8718,7 +8719,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="164" spans="1:6">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>6</v>
       </c>
@@ -8738,7 +8739,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="165" spans="1:6">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>6</v>
       </c>
@@ -8758,7 +8759,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="166" spans="1:6">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>6</v>
       </c>
@@ -8778,7 +8779,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="167" spans="1:6">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>6</v>
       </c>
@@ -8798,7 +8799,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="168" spans="1:6">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>6</v>
       </c>
@@ -8818,7 +8819,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="169" spans="1:6">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>6</v>
       </c>
@@ -8838,7 +8839,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="170" spans="1:6">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>6</v>
       </c>
@@ -8858,7 +8859,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="171" spans="1:6">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>6</v>
       </c>
@@ -8878,7 +8879,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="172" spans="1:6">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>21</v>
       </c>
@@ -8898,7 +8899,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="173" spans="1:6">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>21</v>
       </c>
@@ -8918,7 +8919,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="174" spans="1:6">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>21</v>
       </c>
@@ -8938,7 +8939,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="175" spans="1:6">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>21</v>
       </c>
@@ -8958,7 +8959,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="176" spans="1:6">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>21</v>
       </c>
@@ -8978,7 +8979,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="177" spans="1:6">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>21</v>
       </c>
@@ -8998,7 +8999,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="178" spans="1:6">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>21</v>
       </c>
@@ -9018,7 +9019,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="179" spans="1:6">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>21</v>
       </c>
@@ -9038,7 +9039,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="180" spans="1:6">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>21</v>
       </c>
@@ -9058,7 +9059,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="181" spans="1:6">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>21</v>
       </c>
@@ -9078,7 +9079,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="182" spans="1:6">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>21</v>
       </c>
@@ -9098,7 +9099,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="183" spans="1:6">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>23</v>
       </c>
@@ -9118,7 +9119,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="184" spans="1:6">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>23</v>
       </c>
@@ -9138,7 +9139,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="185" spans="1:6">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>23</v>
       </c>
@@ -9158,7 +9159,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="186" spans="1:6">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>23</v>
       </c>
@@ -9178,7 +9179,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="187" spans="1:6">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>23</v>
       </c>
@@ -9198,7 +9199,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="188" spans="1:6">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>23</v>
       </c>
@@ -9218,7 +9219,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="189" spans="1:6">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>25</v>
       </c>
@@ -9238,7 +9239,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="190" spans="1:6">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>25</v>
       </c>
@@ -9258,7 +9259,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="191" spans="1:6">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>25</v>
       </c>
@@ -9278,7 +9279,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="192" spans="1:6">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>25</v>
       </c>
@@ -9298,7 +9299,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="193" spans="1:6">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>26</v>
       </c>
@@ -9318,7 +9319,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="194" spans="1:6">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>26</v>
       </c>
@@ -9338,7 +9339,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="195" spans="1:6">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>26</v>
       </c>
@@ -9358,7 +9359,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="196" spans="1:6">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>26</v>
       </c>
@@ -9378,7 +9379,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="197" spans="1:6">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>26</v>
       </c>
@@ -9398,7 +9399,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="198" spans="1:6">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>26</v>
       </c>
@@ -9418,7 +9419,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="199" spans="1:6">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>26</v>
       </c>
@@ -9438,7 +9439,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="200" spans="1:6">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>26</v>
       </c>
@@ -9458,7 +9459,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="201" spans="1:6">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>6</v>
       </c>
@@ -9478,7 +9479,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="202" spans="1:6">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>6</v>
       </c>
@@ -9498,7 +9499,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="203" spans="1:6">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>6</v>
       </c>
@@ -9518,7 +9519,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="204" spans="1:6">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>6</v>
       </c>
@@ -9538,7 +9539,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="205" spans="1:6">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>6</v>
       </c>
@@ -9558,7 +9559,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="206" spans="1:6">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>6</v>
       </c>
@@ -9578,7 +9579,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="207" spans="1:6">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>6</v>
       </c>
@@ -9598,7 +9599,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="208" spans="1:6">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>6</v>
       </c>
@@ -9618,7 +9619,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="209" spans="1:6">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>6</v>
       </c>
@@ -9638,7 +9639,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="210" spans="1:6">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>6</v>
       </c>
@@ -9658,7 +9659,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="211" spans="1:6">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>6</v>
       </c>
@@ -9678,7 +9679,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="212" spans="1:6">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>21</v>
       </c>
@@ -9698,7 +9699,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="213" spans="1:6">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>21</v>
       </c>
@@ -9718,7 +9719,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="214" spans="1:6">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>21</v>
       </c>
@@ -9738,7 +9739,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="215" spans="1:6">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>21</v>
       </c>
@@ -9758,7 +9759,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="216" spans="1:6">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>21</v>
       </c>
@@ -9778,7 +9779,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="217" spans="1:6">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>21</v>
       </c>
@@ -9798,7 +9799,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="218" spans="1:6">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>21</v>
       </c>
@@ -9818,7 +9819,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="219" spans="1:6">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>21</v>
       </c>
@@ -9838,7 +9839,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="220" spans="1:6">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>21</v>
       </c>
@@ -9858,7 +9859,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="221" spans="1:6">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>21</v>
       </c>
@@ -9878,7 +9879,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="222" spans="1:6">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>21</v>
       </c>
@@ -9898,7 +9899,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="223" spans="1:6">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>23</v>
       </c>
@@ -9918,7 +9919,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="224" spans="1:6">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>23</v>
       </c>
@@ -9938,7 +9939,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="225" spans="1:6">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>23</v>
       </c>
@@ -9958,7 +9959,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="226" spans="1:6">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>23</v>
       </c>
@@ -9978,7 +9979,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="227" spans="1:6">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>23</v>
       </c>
@@ -9998,7 +9999,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="228" spans="1:6">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>23</v>
       </c>
@@ -10018,7 +10019,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="229" spans="1:6">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>25</v>
       </c>
@@ -10038,7 +10039,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="230" spans="1:6">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>25</v>
       </c>
@@ -10058,7 +10059,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="231" spans="1:6">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>25</v>
       </c>
@@ -10078,7 +10079,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="232" spans="1:6">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>25</v>
       </c>
@@ -10098,7 +10099,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="233" spans="1:6">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>26</v>
       </c>
@@ -10118,7 +10119,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="234" spans="1:6">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>26</v>
       </c>
@@ -10138,7 +10139,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="235" spans="1:6">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>26</v>
       </c>
@@ -10158,7 +10159,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="236" spans="1:6">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>26</v>
       </c>
@@ -10178,7 +10179,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="237" spans="1:6">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>26</v>
       </c>
@@ -10198,7 +10199,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="238" spans="1:6">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>26</v>
       </c>
@@ -10218,7 +10219,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="239" spans="1:6">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>26</v>
       </c>
@@ -10238,7 +10239,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="240" spans="1:6">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>26</v>
       </c>
